--- a/aiswre/data/software_requirements_1.xlsx
+++ b/aiswre/data/software_requirements_1.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d350839dcbf84db5/Desktop/github_projects/venv_aiswre/aiswre/aiswre/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_0309E1E5B43B4C1E492C4CFF85290AE7787E8557" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCAD9029-72B9-4F91-B5C0-E2DC5318B8F1}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_0309E1E5B43B4C1E492C4CFF85290AE7787E8557" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09054C8-A78F-4E3B-B04B-AECC117C3A03}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Type</t>
   </si>
@@ -31,24 +31,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>eval_is_in_passive_voice</t>
-  </si>
-  <si>
-    <t>eval_if_vague_verb</t>
-  </si>
-  <si>
-    <t>eval_has_a_def_article</t>
-  </si>
-  <si>
-    <t>eval_has_vague_terms</t>
-  </si>
-  <si>
-    <t>eval_has_escape_clause</t>
-  </si>
-  <si>
-    <t>failed_evals</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -65,9 +47,6 @@
   </si>
   <si>
     <t>An error during this process means there was a problem parsing the sentence and creating the generic question. In this case, return a message such as Ã¢â‚¬Å“Sorry, I didnÃ¢â‚¬â„¢t understand that.Ã¢â‚¬Â</t>
-  </si>
-  <si>
-    <t>['eval_if_vague_verb', 'eval_has_a_def_article', 'eval_has_vague_terms']</t>
   </si>
 </sst>
 </file>
@@ -147,6 +126,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,129 +419,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>